--- a/result.xlsx
+++ b/result.xlsx
@@ -12,9 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>货物编号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
+  <si>
+    <t>货物ID</t>
+  </si>
+  <si>
+    <t>半径</t>
+  </si>
+  <si>
+    <t>高度</t>
+  </si>
+  <si>
+    <t>价值</t>
   </si>
   <si>
     <t>X坐标</t>
@@ -24,6 +33,21 @@
   </si>
   <si>
     <t>Z坐标</t>
+  </si>
+  <si>
+    <t>装载状态</t>
+  </si>
+  <si>
+    <t>使用策略</t>
+  </si>
+  <si>
+    <t>已装载</t>
+  </si>
+  <si>
+    <t>价值优先</t>
+  </si>
+  <si>
+    <t>未装载</t>
   </si>
 </sst>
 </file>
@@ -68,16 +92,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.30078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="5.734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="5.734375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.17578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="3.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="3.26953125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="3.26953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.41015625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.3828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.3828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.49609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="5.49609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -93,33 +122,513 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>98.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>73.0</v>
       </c>
       <c r="D2" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B7" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-34.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-34.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-88.0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-35.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-35.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-59.0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-48.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-48.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-48.0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-51.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-51.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-63.0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -44,7 +44,7 @@
     <t>已装载</t>
   </si>
   <si>
-    <t>价值优先</t>
+    <t>数量优先</t>
   </si>
   <si>
     <t>未装载</t>
@@ -104,7 +104,7 @@
     <col min="4" max="4" width="3.26953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="4.41015625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.3828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.3828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.296875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="5.49609375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="5.49609375" customWidth="true" bestFit="true"/>
   </cols>
@@ -140,22 +140,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="B2" t="n">
-        <v>98.0</v>
+        <v>5.0</v>
       </c>
       <c r="C2" t="n">
-        <v>73.0</v>
+        <v>40.0</v>
       </c>
       <c r="D2" t="n">
-        <v>94.0</v>
+        <v>78.0</v>
       </c>
       <c r="E2" t="n">
-        <v>98.0</v>
+        <v>5.0</v>
       </c>
       <c r="F2" t="n">
-        <v>98.0</v>
+        <v>5.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -169,25 +169,25 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="B3" t="n">
-        <v>48.0</v>
+        <v>14.0</v>
       </c>
       <c r="C3" t="n">
-        <v>82.0</v>
+        <v>36.0</v>
       </c>
       <c r="D3" t="n">
-        <v>88.0</v>
+        <v>47.0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.0</v>
+        <v>19.0</v>
       </c>
       <c r="F3" t="n">
-        <v>48.0</v>
+        <v>19.0</v>
       </c>
       <c r="G3" t="n">
-        <v>73.0</v>
+        <v>0.0</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -198,22 +198,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="B4" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.0</v>
+        <v>56.0</v>
       </c>
       <c r="D4" t="n">
-        <v>78.0</v>
+        <v>7.0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="F4" t="n">
-        <v>5.0</v>
+        <v>49.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -227,25 +227,25 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="B5" t="n">
-        <v>18.0</v>
+        <v>56.0</v>
       </c>
       <c r="C5" t="n">
-        <v>60.0</v>
+        <v>6.0</v>
       </c>
       <c r="D5" t="n">
-        <v>76.0</v>
+        <v>41.0</v>
       </c>
       <c r="E5" t="n">
-        <v>18.0</v>
+        <v>86.0</v>
       </c>
       <c r="F5" t="n">
-        <v>108.0</v>
+        <v>56.0</v>
       </c>
       <c r="G5" t="n">
-        <v>73.0</v>
+        <v>0.0</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -256,25 +256,25 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="B6" t="n">
-        <v>64.0</v>
+        <v>18.0</v>
       </c>
       <c r="C6" t="n">
-        <v>90.0</v>
+        <v>60.0</v>
       </c>
       <c r="D6" t="n">
-        <v>57.0</v>
+        <v>76.0</v>
       </c>
       <c r="E6" t="n">
-        <v>124.0</v>
+        <v>18.0</v>
       </c>
       <c r="F6" t="n">
-        <v>134.0</v>
+        <v>88.0</v>
       </c>
       <c r="G6" t="n">
-        <v>73.0</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -285,25 +285,25 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B7" t="n">
-        <v>34.0</v>
+        <v>18.0</v>
       </c>
       <c r="C7" t="n">
-        <v>42.0</v>
+        <v>64.0</v>
       </c>
       <c r="D7" t="n">
-        <v>52.0</v>
+        <v>24.0</v>
       </c>
       <c r="E7" t="n">
-        <v>134.0</v>
+        <v>38.0</v>
       </c>
       <c r="F7" t="n">
-        <v>34.0</v>
+        <v>118.0</v>
       </c>
       <c r="G7" t="n">
-        <v>73.0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -314,25 +314,25 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0</v>
+        <v>84.0</v>
       </c>
       <c r="C8" t="n">
-        <v>36.0</v>
+        <v>5.0</v>
       </c>
       <c r="D8" t="n">
-        <v>47.0</v>
+        <v>8.0</v>
       </c>
       <c r="E8" t="n">
-        <v>14.0</v>
+        <v>84.0</v>
       </c>
       <c r="F8" t="n">
-        <v>174.0</v>
+        <v>84.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -343,25 +343,25 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" t="n">
-        <v>56.0</v>
+        <v>34.0</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>42.0</v>
       </c>
       <c r="D9" t="n">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
       <c r="E9" t="n">
-        <v>56.0</v>
+        <v>84.0</v>
       </c>
       <c r="F9" t="n">
-        <v>56.0</v>
+        <v>149.0</v>
       </c>
       <c r="G9" t="n">
-        <v>163.0</v>
+        <v>0.0</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -372,25 +372,25 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="B10" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="C10" t="n">
-        <v>84.0</v>
+        <v>59.0</v>
       </c>
       <c r="D10" t="n">
-        <v>36.0</v>
+        <v>23.0</v>
       </c>
       <c r="E10" t="n">
-        <v>32.0</v>
+        <v>160.0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.0</v>
+        <v>110.0</v>
       </c>
       <c r="G10" t="n">
-        <v>73.0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -401,25 +401,25 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.0</v>
+        <v>17.0</v>
       </c>
       <c r="B11" t="n">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
       <c r="C11" t="n">
-        <v>88.0</v>
+        <v>84.0</v>
       </c>
       <c r="D11" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="E11" t="n">
-        <v>-34.0</v>
+        <v>-32.0</v>
       </c>
       <c r="F11" t="n">
-        <v>-34.0</v>
+        <v>-32.0</v>
       </c>
       <c r="G11" t="n">
-        <v>-88.0</v>
+        <v>-84.0</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -448,7 +448,7 @@
         <v>89.0</v>
       </c>
       <c r="G12" t="n">
-        <v>169.0</v>
+        <v>69.0</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -459,28 +459,28 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B13" t="n">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
       <c r="C13" t="n">
-        <v>64.0</v>
+        <v>88.0</v>
       </c>
       <c r="D13" t="n">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
       <c r="E13" t="n">
-        <v>178.0</v>
+        <v>-34.0</v>
       </c>
       <c r="F13" t="n">
-        <v>68.0</v>
+        <v>-34.0</v>
       </c>
       <c r="G13" t="n">
-        <v>73.0</v>
+        <v>-88.0</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -488,28 +488,28 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="B14" t="n">
-        <v>35.0</v>
+        <v>48.0</v>
       </c>
       <c r="C14" t="n">
-        <v>59.0</v>
+        <v>48.0</v>
       </c>
       <c r="D14" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="E14" t="n">
-        <v>-35.0</v>
+        <v>78.0</v>
       </c>
       <c r="F14" t="n">
-        <v>-35.0</v>
+        <v>48.0</v>
       </c>
       <c r="G14" t="n">
-        <v>-59.0</v>
+        <v>6.0</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -517,25 +517,25 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B15" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="C15" t="n">
-        <v>48.0</v>
+        <v>63.0</v>
       </c>
       <c r="D15" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="E15" t="n">
-        <v>-48.0</v>
+        <v>-51.0</v>
       </c>
       <c r="F15" t="n">
-        <v>-48.0</v>
+        <v>-51.0</v>
       </c>
       <c r="G15" t="n">
-        <v>-48.0</v>
+        <v>-63.0</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
@@ -546,28 +546,28 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="B16" t="n">
-        <v>84.0</v>
+        <v>48.0</v>
       </c>
       <c r="C16" t="n">
-        <v>5.0</v>
+        <v>82.0</v>
       </c>
       <c r="D16" t="n">
-        <v>8.0</v>
+        <v>88.0</v>
       </c>
       <c r="E16" t="n">
-        <v>84.0</v>
+        <v>-48.0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.0</v>
+        <v>-48.0</v>
       </c>
       <c r="G16" t="n">
-        <v>181.0</v>
+        <v>-82.0</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -575,28 +575,28 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="B17" t="n">
-        <v>14.0</v>
+        <v>64.0</v>
       </c>
       <c r="C17" t="n">
-        <v>56.0</v>
+        <v>90.0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.0</v>
+        <v>57.0</v>
       </c>
       <c r="E17" t="n">
-        <v>174.0</v>
+        <v>-64.0</v>
       </c>
       <c r="F17" t="n">
-        <v>14.0</v>
+        <v>-64.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>-90.0</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -604,25 +604,25 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="B18" t="n">
-        <v>51.0</v>
+        <v>98.0</v>
       </c>
       <c r="C18" t="n">
-        <v>63.0</v>
+        <v>73.0</v>
       </c>
       <c r="D18" t="n">
-        <v>6.0</v>
+        <v>94.0</v>
       </c>
       <c r="E18" t="n">
-        <v>-51.0</v>
+        <v>-98.0</v>
       </c>
       <c r="F18" t="n">
-        <v>-51.0</v>
+        <v>-98.0</v>
       </c>
       <c r="G18" t="n">
-        <v>-63.0</v>
+        <v>-73.0</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
